--- a/docs/McSOC IPPLAN.xlsx
+++ b/docs/McSOC IPPLAN.xlsx
@@ -8,14 +8,15 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="163" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="IP" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="PPS" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="52">
   <si>
     <t>host</t>
   </si>
@@ -29,6 +30,9 @@
     <t>ipaddr</t>
   </si>
   <si>
+    <t>connection</t>
+  </si>
+  <si>
     <t>rtr-ext</t>
   </si>
   <si>
@@ -134,7 +138,40 @@
     <t>DEVWKS</t>
   </si>
   <si>
-    <t>10.10.10.11</t>
+    <t>10.10.11.1</t>
+  </si>
+  <si>
+    <t>nagios</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:18033/nagios/</t>
+  </si>
+  <si>
+    <t>10.10.3.3</t>
+  </si>
+  <si>
+    <t>protocol</t>
+  </si>
+  <si>
+    <t>guest port</t>
+  </si>
+  <si>
+    <t>host port</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>https</t>
+  </si>
+  <si>
+    <t>pfsense web</t>
+  </si>
+  <si>
+    <t>http</t>
+  </si>
+  <si>
+    <t>nagios web</t>
   </si>
 </sst>
 </file>
@@ -149,6 +186,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -170,6 +208,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -313,16 +352,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.280612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="25.6020408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -338,285 +379,319 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -628,4 +703,171 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B24" activeCellId="0" sqref="B24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>443</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>55433</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>443</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>55434</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>443</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>55435</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>443</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>55436</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>443</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>55437</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>18033</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/docs/McSOC IPPLAN.xlsx
+++ b/docs/McSOC IPPLAN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="163" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="167" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="IP" sheetId="1" state="visible" r:id="rId2"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="76">
   <si>
     <t>host</t>
   </si>
@@ -147,7 +147,25 @@
     <t>http://127.0.0.1:18033/nagios/</t>
   </si>
   <si>
-    <t>10.10.3.3</t>
+    <t>10.10.4.3</t>
+  </si>
+  <si>
+    <t>socws101</t>
+  </si>
+  <si>
+    <t>10.10.4.101</t>
+  </si>
+  <si>
+    <t>DC1</t>
+  </si>
+  <si>
+    <t>10.10.8.11</t>
+  </si>
+  <si>
+    <t>entwks101</t>
+  </si>
+  <si>
+    <t>10.10.9.101</t>
   </si>
   <si>
     <t>protocol</t>
@@ -172,6 +190,60 @@
   </si>
   <si>
     <t>nagios web</t>
+  </si>
+  <si>
+    <t>dc1</t>
+  </si>
+  <si>
+    <t>dc1 web</t>
+  </si>
+  <si>
+    <t>cups</t>
+  </si>
+  <si>
+    <t>Dc1 cups</t>
+  </si>
+  <si>
+    <t>Dc1 web shell</t>
+  </si>
+  <si>
+    <t>Dc1 webmin</t>
+  </si>
+  <si>
+    <t>smb/cifs</t>
+  </si>
+  <si>
+    <t>smbd</t>
+  </si>
+  <si>
+    <t>ssh</t>
+  </si>
+  <si>
+    <t>DC1 ssh</t>
+  </si>
+  <si>
+    <t>lighttpd</t>
+  </si>
+  <si>
+    <t>cupsd</t>
+  </si>
+  <si>
+    <t>xinetd/check_mk</t>
+  </si>
+  <si>
+    <t>samba</t>
+  </si>
+  <si>
+    <t>dns</t>
+  </si>
+  <si>
+    <t>named</t>
+  </si>
+  <si>
+    <t>ldaps</t>
+  </si>
+  <si>
+    <t>kerberos</t>
   </si>
 </sst>
 </file>
@@ -352,10 +424,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="D30" activeCellId="0" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -692,6 +764,90 @@
       </c>
       <c r="D23" s="0" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -710,10 +866,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B24" activeCellId="0" sqref="B24"/>
+      <selection pane="topLeft" activeCell="D34" activeCellId="0" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -729,16 +885,16 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -749,7 +905,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>443</v>
@@ -758,7 +914,7 @@
         <v>55433</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -769,7 +925,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>443</v>
@@ -778,7 +934,7 @@
         <v>55434</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -789,7 +945,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>443</v>
@@ -798,7 +954,7 @@
         <v>55435</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -809,7 +965,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>443</v>
@@ -818,7 +974,7 @@
         <v>55436</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -829,7 +985,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>443</v>
@@ -838,7 +994,7 @@
         <v>55437</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -849,7 +1005,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>80</v>
@@ -858,7 +1014,309 @@
         <v>18033</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>51</v>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>631</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>12320</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>12321</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>139</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>445</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>443</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>631</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>6556</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>135</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>3268</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>3269</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>1024</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>464</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>636</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>88</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/docs/McSOC IPPLAN.xlsx
+++ b/docs/McSOC IPPLAN.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="90">
   <si>
     <t>host</t>
   </si>
@@ -30,6 +30,9 @@
     <t>ipaddr</t>
   </si>
   <si>
+    <t>ssh port</t>
+  </si>
+  <si>
     <t>connection</t>
   </si>
   <si>
@@ -141,6 +144,27 @@
     <t>10.10.11.1</t>
   </si>
   <si>
+    <t>dmzdns</t>
+  </si>
+  <si>
+    <t>dmzmail</t>
+  </si>
+  <si>
+    <t>10.10.3.3</t>
+  </si>
+  <si>
+    <t>dmzweb</t>
+  </si>
+  <si>
+    <t>10.10.3.4</t>
+  </si>
+  <si>
+    <t>proxy</t>
+  </si>
+  <si>
+    <t>10.10.3.5</t>
+  </si>
+  <si>
     <t>nagios</t>
   </si>
   <si>
@@ -160,6 +184,24 @@
   </si>
   <si>
     <t>10.10.8.11</t>
+  </si>
+  <si>
+    <t>mail</t>
+  </si>
+  <si>
+    <t>10.10.8.13</t>
+  </si>
+  <si>
+    <t>web</t>
+  </si>
+  <si>
+    <t>10.10.8.14</t>
+  </si>
+  <si>
+    <t>file</t>
+  </si>
+  <si>
+    <t>10.10.8.15</t>
   </si>
   <si>
     <t>entwks101</t>
@@ -424,18 +466,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D30" activeCellId="0" sqref="D30"/>
+      <selection pane="topLeft" activeCell="E22" activeCellId="0" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.280612244898"/>
     <col collapsed="false" hidden="false" max="4" min="2" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="25.6020408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.6377551020408"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="25.6020408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -454,400 +497,647 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>22101</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>22102</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>22103</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>22104</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>22105</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="0" t="s">
-        <v>42</v>
+        <v>9</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>22301</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>22302</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="0" t="s">
         <v>44</v>
-      </c>
-      <c r="B25" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" s="0" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>22304</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="0" t="s">
         <v>46</v>
-      </c>
-      <c r="B27" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D27" s="0" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>22303</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="B29" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="D29" s="0" t="s">
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
         <v>49</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>22401</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>22402</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>22801</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>22903</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>22904</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>22905</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>22901</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -885,27 +1175,27 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>443</v>
@@ -914,18 +1204,18 @@
         <v>55433</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>443</v>
@@ -934,18 +1224,18 @@
         <v>55434</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>443</v>
@@ -954,18 +1244,18 @@
         <v>55435</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>443</v>
@@ -974,18 +1264,18 @@
         <v>55436</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>443</v>
@@ -994,18 +1284,18 @@
         <v>55437</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>80</v>
@@ -1014,309 +1304,309 @@
         <v>18033</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>80</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>631</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>12320</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>12321</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>139</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>445</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>22</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>443</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>631</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>6556</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>80</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>135</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>3268</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>3269</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>1024</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>464</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>53</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>636</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>88</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/docs/McSOC IPPLAN.xlsx
+++ b/docs/McSOC IPPLAN.xlsx
@@ -5,287 +5,328 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="167" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="IP" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="PPS" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="90">
-  <si>
-    <t>host</t>
-  </si>
-  <si>
-    <t>interface</t>
-  </si>
-  <si>
-    <t>zone</t>
-  </si>
-  <si>
-    <t>ipaddr</t>
-  </si>
-  <si>
-    <t>ssh port</t>
-  </si>
-  <si>
-    <t>connection</t>
-  </si>
-  <si>
-    <t>rtr-ext</t>
-  </si>
-  <si>
-    <t>em0</t>
-  </si>
-  <si>
-    <t>OPT1</t>
-  </si>
-  <si>
-    <t>nat</t>
-  </si>
-  <si>
-    <t>em1</t>
-  </si>
-  <si>
-    <t>WAN</t>
-  </si>
-  <si>
-    <t>10.10.1.1</t>
-  </si>
-  <si>
-    <t>em2</t>
-  </si>
-  <si>
-    <t>LAN</t>
-  </si>
-  <si>
-    <t>10.10.2.1</t>
-  </si>
-  <si>
-    <t>rtr-dmz</t>
-  </si>
-  <si>
-    <t>10.10.2.2</t>
-  </si>
-  <si>
-    <t>10.10.5.1</t>
-  </si>
-  <si>
-    <t>em3</t>
-  </si>
-  <si>
-    <t>DMZ</t>
-  </si>
-  <si>
-    <t>10.10.3.2</t>
-  </si>
-  <si>
-    <t>em4</t>
-  </si>
-  <si>
-    <t>SOC</t>
-  </si>
-  <si>
-    <t>10.10.4.2</t>
-  </si>
-  <si>
-    <t>rtr-int</t>
-  </si>
-  <si>
-    <t>ENT</t>
-  </si>
-  <si>
-    <t>10.10.6.1</t>
-  </si>
-  <si>
-    <t>DEV</t>
-  </si>
-  <si>
-    <t>10.10.7.1</t>
-  </si>
-  <si>
-    <t>rtr-ent</t>
-  </si>
-  <si>
-    <t>10.10.6.2</t>
-  </si>
-  <si>
-    <t>ENTSVR</t>
-  </si>
-  <si>
-    <t>10.10.8.1</t>
-  </si>
-  <si>
-    <t>ENTWKS</t>
-  </si>
-  <si>
-    <t>10.10.9.1</t>
-  </si>
-  <si>
-    <t>rtr-dev</t>
-  </si>
-  <si>
-    <t>10.10.7.2</t>
-  </si>
-  <si>
-    <t>DEVSVR</t>
-  </si>
-  <si>
-    <t>10.10.10.1</t>
-  </si>
-  <si>
-    <t>DEVWKS</t>
-  </si>
-  <si>
-    <t>10.10.11.1</t>
-  </si>
-  <si>
-    <t>dmzdns</t>
-  </si>
-  <si>
-    <t>dmzmail</t>
-  </si>
-  <si>
-    <t>10.10.3.3</t>
-  </si>
-  <si>
-    <t>dmzweb</t>
-  </si>
-  <si>
-    <t>10.10.3.4</t>
-  </si>
-  <si>
-    <t>proxy</t>
-  </si>
-  <si>
-    <t>10.10.3.5</t>
-  </si>
-  <si>
-    <t>nagios</t>
-  </si>
-  <si>
-    <t>http://127.0.0.1:18033/nagios/</t>
-  </si>
-  <si>
-    <t>10.10.4.3</t>
-  </si>
-  <si>
-    <t>socws101</t>
-  </si>
-  <si>
-    <t>10.10.4.101</t>
-  </si>
-  <si>
-    <t>DC1</t>
-  </si>
-  <si>
-    <t>10.10.8.11</t>
-  </si>
-  <si>
-    <t>mail</t>
-  </si>
-  <si>
-    <t>10.10.8.13</t>
-  </si>
-  <si>
-    <t>web</t>
-  </si>
-  <si>
-    <t>10.10.8.14</t>
-  </si>
-  <si>
-    <t>file</t>
-  </si>
-  <si>
-    <t>10.10.8.15</t>
-  </si>
-  <si>
-    <t>entwks101</t>
-  </si>
-  <si>
-    <t>10.10.9.101</t>
-  </si>
-  <si>
-    <t>protocol</t>
-  </si>
-  <si>
-    <t>guest port</t>
-  </si>
-  <si>
-    <t>host port</t>
-  </si>
-  <si>
-    <t>service</t>
-  </si>
-  <si>
-    <t>https</t>
-  </si>
-  <si>
-    <t>pfsense web</t>
-  </si>
-  <si>
-    <t>http</t>
-  </si>
-  <si>
-    <t>nagios web</t>
-  </si>
-  <si>
-    <t>dc1</t>
-  </si>
-  <si>
-    <t>dc1 web</t>
-  </si>
-  <si>
-    <t>cups</t>
-  </si>
-  <si>
-    <t>Dc1 cups</t>
-  </si>
-  <si>
-    <t>Dc1 web shell</t>
-  </si>
-  <si>
-    <t>Dc1 webmin</t>
-  </si>
-  <si>
-    <t>smb/cifs</t>
-  </si>
-  <si>
-    <t>smbd</t>
-  </si>
-  <si>
-    <t>ssh</t>
-  </si>
-  <si>
-    <t>DC1 ssh</t>
-  </si>
-  <si>
-    <t>lighttpd</t>
-  </si>
-  <si>
-    <t>cupsd</t>
-  </si>
-  <si>
-    <t>xinetd/check_mk</t>
-  </si>
-  <si>
-    <t>samba</t>
-  </si>
-  <si>
-    <t>dns</t>
-  </si>
-  <si>
-    <t>named</t>
-  </si>
-  <si>
-    <t>ldaps</t>
-  </si>
-  <si>
-    <t>kerberos</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="102">
+  <si>
+    <t xml:space="preserve">host</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interface</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ipaddr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ssh port</t>
+  </si>
+  <si>
+    <t xml:space="preserve">connection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rtr-ext</t>
+  </si>
+  <si>
+    <t xml:space="preserve">em0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OPT1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://127.0.0.1:33433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">em1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.10.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">em2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.10.2.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rtr-dmz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://127.0.0.1:33434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.10.2.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.10.5.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">em3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.10.3.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">em4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.10.4.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rtr-int</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://127.0.0.1:33435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.10.6.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.10.7.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rtr-ent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://127.0.0.1:33436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.10.6.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENTSVR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.10.8.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENTWKS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.10.9.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rtr-dev</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://127.0.0.1:33437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.10.7.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEVSVR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.10.10.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEVWKS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.10.11.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dmzdns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dmzmail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.10.3.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dmzweb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.10.3.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">proxy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.10.3.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nagios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://127.0.0.1:5080/mva/omd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">omdadmin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">omd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.10.4.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://10.10.4.3/mva/omd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">socws101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.10.4.101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.10.4.102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DC1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.10.8.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.10.8.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">web</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.10.8.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.10.8.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">entwks101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.10.9.101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protocol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">guest port</t>
+  </si>
+  <si>
+    <t xml:space="preserve">host port</t>
+  </si>
+  <si>
+    <t xml:space="preserve">service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pfsense web</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nagios web</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dc1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dc1 web</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cups</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dc1 cups</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dc1 web shell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dc1 webmin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">smb/cifs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">smbd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ssh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DC1 ssh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lighttpd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cupsd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xinetd/check_mk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">named</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ldaps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kerberos</t>
   </si>
 </sst>
 </file>
@@ -293,9 +334,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -320,6 +361,13 @@
     <font>
       <b val="true"/>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -380,12 +428,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -466,19 +518,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E22" activeCellId="0" sqref="E22"/>
+      <selection pane="topLeft" activeCell="K26" activeCellId="0" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.280612244898"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.6377551020408"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="25.6020408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="25.2448979591837"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -500,314 +552,350 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>22101</v>
       </c>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>22102</v>
       </c>
+      <c r="F5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>22103</v>
       </c>
+      <c r="F10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>22104</v>
       </c>
+      <c r="F14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>22105</v>
       </c>
+      <c r="F18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E22" s="0" t="n">
         <v>22301</v>
@@ -815,30 +903,30 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E24" s="0" t="n">
         <v>22302</v>
@@ -846,30 +934,30 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E26" s="0" t="n">
         <v>22304</v>
@@ -877,30 +965,30 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E28" s="0" t="n">
         <v>22303</v>
@@ -908,64 +996,79 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E30" s="0" t="n">
         <v>22401</v>
       </c>
-      <c r="F30" s="0" t="s">
-        <v>50</v>
+      <c r="F30" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="H30" s="0" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>51</v>
+        <v>61</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="H31" s="0" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E32" s="0" t="n">
         <v>22402</v>
@@ -973,174 +1076,214 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>22801</v>
+        <v>22403</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>22903</v>
+        <v>22801</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>22904</v>
+        <v>22903</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>22905</v>
+        <v>22904</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>22901</v>
+        <v>22905</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="B43" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="C43" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="D43" s="0" t="s">
-        <v>63</v>
+      <c r="D44" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" s="0" t="n">
+        <v>22901</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" display="http://127.0.0.1:33433"/>
+    <hyperlink ref="F5" r:id="rId2" display="http://127.0.0.1:33434"/>
+    <hyperlink ref="F10" r:id="rId3" display="http://127.0.0.1:33435"/>
+    <hyperlink ref="F14" r:id="rId4" display="http://127.0.0.1:33436"/>
+    <hyperlink ref="F18" r:id="rId5" display="http://127.0.0.1:33437"/>
+    <hyperlink ref="F30" r:id="rId6" display="http://127.0.0.1:5080/mva/omd"/>
+    <hyperlink ref="F31" r:id="rId7" display="http://10.10.4.3/mva/omd"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1164,7 +1307,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1175,27 +1318,27 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>443</v>
@@ -1204,18 +1347,18 @@
         <v>55433</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>443</v>
@@ -1224,18 +1367,18 @@
         <v>55434</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>443</v>
@@ -1244,18 +1387,18 @@
         <v>55435</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>443</v>
@@ -1264,18 +1407,18 @@
         <v>55436</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>443</v>
@@ -1284,18 +1427,18 @@
         <v>55437</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>80</v>
@@ -1304,309 +1447,309 @@
         <v>18033</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>80</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>631</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>12320</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>12321</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>139</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>445</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>22</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>443</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>631</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>6556</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>80</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>135</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>3268</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>3269</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>1024</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>464</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>53</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>636</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>88</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
